--- a/advstats.xlsx
+++ b/advstats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waelivie/Desktop/MBB_performance_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6109FC3-D4E0-0446-970C-0139C4856606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA0DCC6-D055-6D49-8FA6-2B4C39379CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
